--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>pettrius</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>123123</t>
+  </si>
+  <si>
+    <t>pett</t>
+  </si>
+  <si>
+    <t>william</t>
   </si>
 </sst>
 </file>
@@ -83,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,6 +135,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
